--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_10_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_10_1_replicas_SMOTE.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="186">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -31,9 +34,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -64,475 +64,517 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.879+/-0.002</t>
-  </si>
-  <si>
-    <t>0.818+/-0.0</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.871+/-0.003</t>
-  </si>
-  <si>
-    <t>0.818+/-0.012</t>
-  </si>
-  <si>
-    <t>0.298</t>
-  </si>
-  <si>
-    <t>0.889+/-0.002</t>
-  </si>
-  <si>
-    <t>0.818+/-0.017</t>
-  </si>
-  <si>
-    <t>0.323</t>
-  </si>
-  <si>
-    <t>6.783+/-0.292</t>
-  </si>
-  <si>
-    <t>0.748+/-0.003</t>
-  </si>
-  <si>
-    <t>0.739+/-0.0</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.754+/-0.005</t>
-  </si>
-  <si>
-    <t>0.747+/-0.017</t>
-  </si>
-  <si>
-    <t>0.289</t>
-  </si>
-  <si>
-    <t>0.735+/-0.008</t>
-  </si>
-  <si>
-    <t>0.724+/-0.014</t>
-  </si>
-  <si>
-    <t>0.421</t>
-  </si>
-  <si>
-    <t>1.517+/-0.199</t>
-  </si>
-  <si>
-    <t>0.853+/-0.002</t>
-  </si>
-  <si>
-    <t>0.837+/-0.0</t>
-  </si>
-  <si>
-    <t>0.746</t>
-  </si>
-  <si>
-    <t>0.878+/-0.003</t>
-  </si>
-  <si>
-    <t>0.864+/-0.012</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>0.82+/-0.002</t>
-  </si>
-  <si>
-    <t>0.799+/-0.02</t>
-  </si>
-  <si>
-    <t>0.267</t>
-  </si>
-  <si>
-    <t>5.827+/-0.132</t>
-  </si>
-  <si>
-    <t>0.688+/-0.005</t>
-  </si>
-  <si>
-    <t>0.665+/-0.0</t>
-  </si>
-  <si>
-    <t>0.637</t>
-  </si>
-  <si>
-    <t>0.708+/-0.008</t>
-  </si>
-  <si>
-    <t>0.684+/-0.012</t>
-  </si>
-  <si>
-    <t>0.261</t>
-  </si>
-  <si>
-    <t>0.64+/-0.012</t>
-  </si>
-  <si>
-    <t>0.615+/-0.023</t>
-  </si>
-  <si>
-    <t>0.437</t>
-  </si>
-  <si>
-    <t>0.747+/-0.039</t>
-  </si>
-  <si>
-    <t>0.899+/-0.002</t>
-  </si>
-  <si>
-    <t>0.856+/-0.0</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>0.882+/-0.002</t>
-  </si>
-  <si>
-    <t>0.845+/-0.01</t>
-  </si>
-  <si>
-    <t>0.264</t>
-  </si>
-  <si>
-    <t>0.921+/-0.002</t>
-  </si>
-  <si>
-    <t>0.873+/-0.01</t>
-  </si>
-  <si>
-    <t>0.337</t>
-  </si>
-  <si>
-    <t>7.674+/-0.323</t>
-  </si>
-  <si>
-    <t>0.768+/-0.003</t>
-  </si>
-  <si>
-    <t>0.762+/-0.0</t>
-  </si>
-  <si>
-    <t>0.77+/-0.003</t>
-  </si>
-  <si>
-    <t>0.764+/-0.014</t>
-  </si>
-  <si>
-    <t>0.235</t>
-  </si>
-  <si>
-    <t>0.764+/-0.006</t>
-  </si>
-  <si>
-    <t>0.757+/-0.013</t>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.877+/-0.002</t>
+  </si>
+  <si>
+    <t>0.816+/-0.0</t>
+  </si>
+  <si>
+    <t>0.705</t>
+  </si>
+  <si>
+    <t>0.866+/-0.002</t>
+  </si>
+  <si>
+    <t>0.812+/-0.012</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>0.892+/-0.002</t>
+  </si>
+  <si>
+    <t>0.823+/-0.017</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>7.466+/-0.173</t>
+  </si>
+  <si>
+    <t>0.751+/-0.003</t>
+  </si>
+  <si>
+    <t>0.741+/-0.0</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>0.749+/-0.003</t>
+  </si>
+  <si>
+    <t>0.739+/-0.012</t>
+  </si>
+  <si>
+    <t>0.301</t>
+  </si>
+  <si>
+    <t>0.756+/-0.004</t>
+  </si>
+  <si>
+    <t>0.745+/-0.014</t>
+  </si>
+  <si>
+    <t>0.448</t>
+  </si>
+  <si>
+    <t>1.515+/-0.052</t>
+  </si>
+  <si>
+    <t>0.851+/-0.002</t>
+  </si>
+  <si>
+    <t>0.836+/-0.0</t>
+  </si>
+  <si>
+    <t>0.747</t>
+  </si>
+  <si>
+    <t>0.877+/-0.003</t>
+  </si>
+  <si>
+    <t>0.865+/-0.01</t>
+  </si>
+  <si>
+    <t>0.334</t>
+  </si>
+  <si>
+    <t>0.817+/-0.003</t>
+  </si>
+  <si>
+    <t>0.797+/-0.019</t>
+  </si>
+  <si>
+    <t>0.256</t>
+  </si>
+  <si>
+    <t>5.75+/-0.056</t>
+  </si>
+  <si>
+    <t>0.698+/-0.005</t>
+  </si>
+  <si>
+    <t>0.676+/-0.0</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.717+/-0.006</t>
+  </si>
+  <si>
+    <t>0.694+/-0.013</t>
+  </si>
+  <si>
+    <t>0.265</t>
+  </si>
+  <si>
+    <t>0.654+/-0.008</t>
+  </si>
+  <si>
+    <t>0.63+/-0.024</t>
+  </si>
+  <si>
+    <t>0.413</t>
+  </si>
+  <si>
+    <t>0.748+/-0.03</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.898+/-0.001</t>
+  </si>
+  <si>
+    <t>0.851+/-0.0</t>
+  </si>
+  <si>
+    <t>0.763</t>
+  </si>
+  <si>
+    <t>0.883+/-0.002</t>
+  </si>
+  <si>
+    <t>0.846+/-0.012</t>
+  </si>
+  <si>
+    <t>0.268</t>
+  </si>
+  <si>
+    <t>0.918+/-0.001</t>
+  </si>
+  <si>
+    <t>0.86+/-0.019</t>
+  </si>
+  <si>
+    <t>7.753+/-0.124</t>
+  </si>
+  <si>
+    <t>0.774+/-0.004</t>
+  </si>
+  <si>
+    <t>0.765+/-0.0</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.776+/-0.004</t>
+  </si>
+  <si>
+    <t>0.768+/-0.012</t>
+  </si>
+  <si>
+    <t>0.255</t>
+  </si>
+  <si>
+    <t>0.77+/-0.006</t>
+  </si>
+  <si>
+    <t>0.76+/-0.012</t>
+  </si>
+  <si>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>1.53+/-0.034</t>
+  </si>
+  <si>
+    <t>0.878+/-0.001</t>
+  </si>
+  <si>
+    <t>0.867+/-0.0</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.888+/-0.001</t>
+  </si>
+  <si>
+    <t>0.879+/-0.008</t>
+  </si>
+  <si>
+    <t>0.293</t>
+  </si>
+  <si>
+    <t>0.852+/-0.014</t>
+  </si>
+  <si>
+    <t>0.283</t>
+  </si>
+  <si>
+    <t>6.225+/-0.34</t>
+  </si>
+  <si>
+    <t>0.704+/-0.004</t>
+  </si>
+  <si>
+    <t>0.689+/-0.0</t>
+  </si>
+  <si>
+    <t>0.699</t>
+  </si>
+  <si>
+    <t>0.739+/-0.004</t>
+  </si>
+  <si>
+    <t>0.723+/-0.012</t>
+  </si>
+  <si>
+    <t>0.225</t>
+  </si>
+  <si>
+    <t>0.63+/-0.007</t>
+  </si>
+  <si>
+    <t>0.612+/-0.015</t>
   </si>
   <si>
     <t>0.412</t>
   </si>
   <si>
-    <t>1.48+/-0.039</t>
-  </si>
-  <si>
-    <t>0.875+/-0.001</t>
-  </si>
-  <si>
-    <t>0.863+/-0.0</t>
-  </si>
-  <si>
-    <t>0.787</t>
-  </si>
-  <si>
-    <t>0.886+/-0.001</t>
-  </si>
-  <si>
-    <t>0.876+/-0.009</t>
-  </si>
-  <si>
-    <t>0.287</t>
-  </si>
-  <si>
-    <t>0.862+/-0.002</t>
-  </si>
-  <si>
-    <t>0.846+/-0.014</t>
-  </si>
-  <si>
-    <t>0.283</t>
-  </si>
-  <si>
-    <t>5.812+/-0.095</t>
-  </si>
-  <si>
-    <t>0.708+/-0.003</t>
-  </si>
-  <si>
-    <t>0.694+/-0.0</t>
-  </si>
-  <si>
-    <t>0.688</t>
-  </si>
-  <si>
-    <t>0.733+/-0.002</t>
-  </si>
-  <si>
-    <t>0.718+/-0.011</t>
-  </si>
-  <si>
-    <t>0.222</t>
-  </si>
-  <si>
-    <t>0.655+/-0.006</t>
-  </si>
-  <si>
-    <t>0.639+/-0.023</t>
-  </si>
-  <si>
-    <t>0.434</t>
-  </si>
-  <si>
-    <t>0.802+/-0.015</t>
-  </si>
-  <si>
-    <t>0.851+/-0.003</t>
-  </si>
-  <si>
-    <t>0.745+/-0.0</t>
-  </si>
-  <si>
-    <t>0.673</t>
-  </si>
-  <si>
-    <t>0.888+/-0.007</t>
-  </si>
-  <si>
-    <t>0.768+/-0.016</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>0.802+/-0.003</t>
-  </si>
-  <si>
-    <t>0.703+/-0.021</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>6.837+/-0.023</t>
-  </si>
-  <si>
-    <t>0.685+/-0.002</t>
+    <t>0.959+/-0.089</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85+/-0.004</t>
+  </si>
+  <si>
+    <t>0.736+/-0.0</t>
+  </si>
+  <si>
+    <t>0.668</t>
+  </si>
+  <si>
+    <t>0.882+/-0.006</t>
+  </si>
+  <si>
+    <t>0.76+/-0.014</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>0.808+/-0.002</t>
+  </si>
+  <si>
+    <t>0.692+/-0.012</t>
+  </si>
+  <si>
+    <t>0.348</t>
+  </si>
+  <si>
+    <t>6.77+/-0.115</t>
+  </si>
+  <si>
+    <t>0.683+/-0.002</t>
   </si>
   <si>
     <t>0.666+/-0.0</t>
   </si>
   <si>
-    <t>0.634</t>
-  </si>
-  <si>
-    <t>0.7+/-0.003</t>
-  </si>
-  <si>
-    <t>0.681+/-0.015</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.647+/-0.006</t>
-  </si>
-  <si>
-    <t>0.625+/-0.015</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>1.445+/-0.015</t>
-  </si>
-  <si>
-    <t>0.798+/-0.002</t>
-  </si>
-  <si>
-    <t>0.765+/-0.0</t>
-  </si>
-  <si>
-    <t>0.713</t>
-  </si>
-  <si>
-    <t>0.919+/-0.007</t>
-  </si>
-  <si>
-    <t>0.875+/-0.013</t>
-  </si>
-  <si>
-    <t>0.456</t>
-  </si>
-  <si>
-    <t>0.654+/-0.003</t>
-  </si>
-  <si>
-    <t>0.62+/-0.013</t>
-  </si>
-  <si>
-    <t>0.183</t>
-  </si>
-  <si>
-    <t>5.555+/-0.034</t>
-  </si>
-  <si>
-    <t>0.673+/-0.004</t>
-  </si>
-  <si>
-    <t>0.626+/-0.0</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.664+/-0.006</t>
-  </si>
-  <si>
-    <t>0.618+/-0.013</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>0.701+/-0.01</t>
-  </si>
-  <si>
-    <t>0.665+/-0.022</t>
-  </si>
-  <si>
-    <t>0.555</t>
-  </si>
-  <si>
-    <t>0.74+/-0.016</t>
-  </si>
-  <si>
-    <t>0.847+/-0.002</t>
-  </si>
-  <si>
-    <t>0.718+/-0.0</t>
-  </si>
-  <si>
-    <t>0.644</t>
-  </si>
-  <si>
-    <t>0.888+/-0.004</t>
-  </si>
-  <si>
-    <t>0.749+/-0.016</t>
-  </si>
-  <si>
-    <t>0.397</t>
-  </si>
-  <si>
-    <t>0.795+/-0.003</t>
-  </si>
-  <si>
-    <t>0.655+/-0.022</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>6.466+/-0.031</t>
-  </si>
-  <si>
-    <t>0.679+/-0.003</t>
-  </si>
-  <si>
-    <t>0.659+/-0.0</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>0.705+/-0.005</t>
-  </si>
-  <si>
-    <t>0.683+/-0.011</t>
-  </si>
-  <si>
-    <t>0.372</t>
-  </si>
-  <si>
-    <t>0.616+/-0.004</t>
-  </si>
-  <si>
-    <t>0.596+/-0.019</t>
-  </si>
-  <si>
-    <t>1.395+/-0.014</t>
-  </si>
-  <si>
-    <t>0.783+/-0.003</t>
-  </si>
-  <si>
-    <t>0.743+/-0.0</t>
-  </si>
-  <si>
-    <t>0.676</t>
-  </si>
-  <si>
-    <t>0.92+/-0.004</t>
-  </si>
-  <si>
-    <t>0.862+/-0.015</t>
-  </si>
-  <si>
-    <t>0.433</t>
-  </si>
-  <si>
-    <t>0.62+/-0.004</t>
-  </si>
-  <si>
-    <t>0.579+/-0.015</t>
-  </si>
-  <si>
-    <t>0.164</t>
-  </si>
-  <si>
-    <t>5.349+/-0.024</t>
-  </si>
-  <si>
-    <t>0.674+/-0.004</t>
-  </si>
-  <si>
-    <t>0.611+/-0.0</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>0.654+/-0.005</t>
-  </si>
-  <si>
-    <t>0.597+/-0.015</t>
+    <t>0.633</t>
+  </si>
+  <si>
+    <t>0.699+/-0.003</t>
+  </si>
+  <si>
+    <t>0.682+/-0.019</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.642+/-0.005</t>
+  </si>
+  <si>
+    <t>0.624+/-0.018</t>
+  </si>
+  <si>
+    <t>0.383</t>
+  </si>
+  <si>
+    <t>1.413+/-0.035</t>
+  </si>
+  <si>
+    <t>0.795+/-0.001</t>
+  </si>
+  <si>
+    <t>0.764+/-0.0</t>
+  </si>
+  <si>
+    <t>0.714</t>
+  </si>
+  <si>
+    <t>0.915+/-0.003</t>
+  </si>
+  <si>
+    <t>0.869+/-0.015</t>
+  </si>
+  <si>
+    <t>0.454</t>
+  </si>
+  <si>
+    <t>0.65+/-0.003</t>
+  </si>
+  <si>
+    <t>0.622+/-0.012</t>
+  </si>
+  <si>
+    <t>0.163</t>
+  </si>
+  <si>
+    <t>5.503+/-0.112</t>
+  </si>
+  <si>
+    <t>0.68+/-0.004</t>
+  </si>
+  <si>
+    <t>0.629+/-0.0</t>
+  </si>
+  <si>
+    <t>0.598</t>
+  </si>
+  <si>
+    <t>0.672+/-0.004</t>
+  </si>
+  <si>
+    <t>0.623+/-0.021</t>
+  </si>
+  <si>
+    <t>0.352</t>
+  </si>
+  <si>
+    <t>0.702+/-0.007</t>
+  </si>
+  <si>
+    <t>0.655+/-0.015</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.716+/-0.056</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.856+/-0.002</t>
+  </si>
+  <si>
+    <t>0.725+/-0.0</t>
+  </si>
+  <si>
+    <t>0.651</t>
+  </si>
+  <si>
+    <t>0.912+/-0.004</t>
+  </si>
+  <si>
+    <t>0.77+/-0.015</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.788+/-0.003</t>
+  </si>
+  <si>
+    <t>0.643+/-0.028</t>
+  </si>
+  <si>
+    <t>0.279</t>
+  </si>
+  <si>
+    <t>6.498+/-0.168</t>
+  </si>
+  <si>
+    <t>0.67+/-0.004</t>
+  </si>
+  <si>
+    <t>0.655+/-0.0</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>0.702+/-0.005</t>
+  </si>
+  <si>
+    <t>0.686+/-0.013</t>
+  </si>
+  <si>
+    <t>0.382</t>
+  </si>
+  <si>
+    <t>0.591+/-0.007</t>
+  </si>
+  <si>
+    <t>0.574+/-0.022</t>
+  </si>
+  <si>
+    <t>0.347</t>
+  </si>
+  <si>
+    <t>1.352+/-0.059</t>
+  </si>
+  <si>
+    <t>0.777+/-0.002</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.921+/-0.004</t>
+  </si>
+  <si>
+    <t>0.857+/-0.021</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>0.606+/-0.006</t>
+  </si>
+  <si>
+    <t>0.566+/-0.021</t>
+  </si>
+  <si>
+    <t>0.147</t>
+  </si>
+  <si>
+    <t>5.119+/-0.103</t>
+  </si>
+  <si>
+    <t>0.677+/-0.003</t>
+  </si>
+  <si>
+    <t>0.616+/-0.0</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.661+/-0.005</t>
+  </si>
+  <si>
+    <t>0.604+/-0.013</t>
   </si>
   <si>
     <t>0.377</t>
   </si>
   <si>
-    <t>0.74+/-0.011</t>
-  </si>
-  <si>
-    <t>0.685+/-0.024</t>
-  </si>
-  <si>
-    <t>0.713+/-0.016</t>
+    <t>0.726+/-0.01</t>
+  </si>
+  <si>
+    <t>0.671+/-0.03</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.673+/-0.022</t>
   </si>
 </sst>
 </file>
@@ -921,16 +963,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -938,19 +980,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -958,19 +1000,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>0.7983870967741935</v>
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -978,19 +1020,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -998,19 +1040,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1018,19 +1060,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1038,19 +1080,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1058,19 +1100,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1078,19 +1120,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1098,19 +1140,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1148,19 +1190,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1168,19 +1210,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1188,19 +1230,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4">
-        <v>0.85</v>
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1208,19 +1250,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1228,19 +1270,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1248,19 +1290,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1268,19 +1310,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1288,19 +1330,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1308,19 +1350,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1328,19 +1370,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1420,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>104</v>
@@ -1389,8 +1431,8 @@
       <c r="E2" t="s">
         <v>124</v>
       </c>
-      <c r="F2">
-        <v>0.5</v>
+      <c r="F2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1398,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>105</v>
@@ -1409,8 +1451,8 @@
       <c r="E3" t="s">
         <v>125</v>
       </c>
-      <c r="F3">
-        <v>0.5</v>
+      <c r="F3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1418,7 +1460,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>106</v>
@@ -1429,8 +1471,8 @@
       <c r="E4" t="s">
         <v>126</v>
       </c>
-      <c r="F4">
-        <v>0.7231182795698925</v>
+      <c r="F4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1438,7 +1480,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
         <v>107</v>
@@ -1449,8 +1491,8 @@
       <c r="E5" t="s">
         <v>127</v>
       </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="F5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1458,7 +1500,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
         <v>108</v>
@@ -1469,8 +1511,8 @@
       <c r="E6" t="s">
         <v>128</v>
       </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="F6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1478,7 +1520,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>109</v>
@@ -1489,8 +1531,8 @@
       <c r="E7" t="s">
         <v>129</v>
       </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="F7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1498,7 +1540,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
         <v>110</v>
@@ -1509,8 +1551,8 @@
       <c r="E8" t="s">
         <v>130</v>
       </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="F8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1518,7 +1560,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
         <v>111</v>
@@ -1529,8 +1571,8 @@
       <c r="E9" t="s">
         <v>131</v>
       </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="F9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1538,7 +1580,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>112</v>
@@ -1549,8 +1591,8 @@
       <c r="E10" t="s">
         <v>132</v>
       </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="F10" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1569,8 +1611,8 @@
       <c r="E11" t="s">
         <v>133</v>
       </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="F11" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1608,19 +1650,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>167</v>
+      </c>
+      <c r="F2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1628,19 +1670,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1648,19 +1690,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4">
-        <v>0.6919354838709677</v>
+        <v>168</v>
+      </c>
+      <c r="F4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1668,19 +1710,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="F5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1688,19 +1730,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="F6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1708,19 +1750,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>171</v>
+      </c>
+      <c r="F7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1728,19 +1770,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>172</v>
+      </c>
+      <c r="F8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1748,19 +1790,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="F9" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1768,19 +1810,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="F10" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1788,19 +1830,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="F11" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_10_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_10_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="181">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -79,379 +79,367 @@
     <t>0.1+/-0.3</t>
   </si>
   <si>
-    <t>0.001+/-0.0</t>
-  </si>
-  <si>
-    <t>0.877+/-0.002</t>
-  </si>
-  <si>
-    <t>0.816+/-0.0</t>
-  </si>
-  <si>
-    <t>0.705</t>
-  </si>
-  <si>
-    <t>0.866+/-0.002</t>
-  </si>
-  <si>
-    <t>0.812+/-0.012</t>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.876+/-0.002</t>
+  </si>
+  <si>
+    <t>0.819+/-0.0</t>
+  </si>
+  <si>
+    <t>0.708</t>
+  </si>
+  <si>
+    <t>0.87+/-0.003</t>
+  </si>
+  <si>
+    <t>0.821+/-0.011</t>
   </si>
   <si>
     <t>0.296</t>
   </si>
   <si>
-    <t>0.892+/-0.002</t>
-  </si>
-  <si>
-    <t>0.823+/-0.017</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>7.466+/-0.173</t>
-  </si>
-  <si>
-    <t>0.751+/-0.003</t>
-  </si>
-  <si>
-    <t>0.741+/-0.0</t>
-  </si>
-  <si>
-    <t>0.678</t>
-  </si>
-  <si>
-    <t>0.749+/-0.003</t>
-  </si>
-  <si>
-    <t>0.739+/-0.012</t>
-  </si>
-  <si>
-    <t>0.301</t>
-  </si>
-  <si>
-    <t>0.756+/-0.004</t>
-  </si>
-  <si>
-    <t>0.745+/-0.014</t>
-  </si>
-  <si>
-    <t>0.448</t>
-  </si>
-  <si>
-    <t>1.515+/-0.052</t>
-  </si>
-  <si>
-    <t>0.851+/-0.002</t>
-  </si>
-  <si>
-    <t>0.836+/-0.0</t>
-  </si>
-  <si>
-    <t>0.747</t>
-  </si>
-  <si>
-    <t>0.877+/-0.003</t>
-  </si>
-  <si>
-    <t>0.865+/-0.01</t>
+    <t>0.885+/-0.002</t>
+  </si>
+  <si>
+    <t>0.816+/-0.012</t>
+  </si>
+  <si>
+    <t>0.328</t>
+  </si>
+  <si>
+    <t>6.686+/-0.124</t>
+  </si>
+  <si>
+    <t>0.75+/-0.003</t>
+  </si>
+  <si>
+    <t>0.739+/-0.0</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.75+/-0.004</t>
+  </si>
+  <si>
+    <t>0.74+/-0.015</t>
+  </si>
+  <si>
+    <t>0.291</t>
+  </si>
+  <si>
+    <t>0.751+/-0.005</t>
+  </si>
+  <si>
+    <t>0.738+/-0.016</t>
+  </si>
+  <si>
+    <t>0.443</t>
+  </si>
+  <si>
+    <t>1.367+/-0.019</t>
+  </si>
+  <si>
+    <t>0.852+/-0.001</t>
+  </si>
+  <si>
+    <t>0.837+/-0.0</t>
+  </si>
+  <si>
+    <t>0.749</t>
+  </si>
+  <si>
+    <t>0.88+/-0.001</t>
+  </si>
+  <si>
+    <t>0.867+/-0.014</t>
+  </si>
+  <si>
+    <t>0.337</t>
+  </si>
+  <si>
+    <t>0.815+/-0.002</t>
+  </si>
+  <si>
+    <t>0.796+/-0.018</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
+    <t>5.285+/-0.05</t>
+  </si>
+  <si>
+    <t>0.696+/-0.004</t>
+  </si>
+  <si>
+    <t>0.672+/-0.0</t>
+  </si>
+  <si>
+    <t>0.642</t>
+  </si>
+  <si>
+    <t>0.719+/-0.004</t>
+  </si>
+  <si>
+    <t>0.693+/-0.015</t>
+  </si>
+  <si>
+    <t>0.268</t>
+  </si>
+  <si>
+    <t>0.643+/-0.01</t>
+  </si>
+  <si>
+    <t>0.618+/-0.022</t>
+  </si>
+  <si>
+    <t>0.445</t>
+  </si>
+  <si>
+    <t>0.653+/-0.016</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.894+/-0.002</t>
+  </si>
+  <si>
+    <t>0.851+/-0.0</t>
+  </si>
+  <si>
+    <t>0.753</t>
+  </si>
+  <si>
+    <t>0.841+/-0.013</t>
+  </si>
+  <si>
+    <t>0.259</t>
+  </si>
+  <si>
+    <t>0.919+/-0.003</t>
+  </si>
+  <si>
+    <t>0.867+/-0.012</t>
+  </si>
+  <si>
+    <t>0.348</t>
+  </si>
+  <si>
+    <t>7.312+/-0.085</t>
+  </si>
+  <si>
+    <t>0.775+/-0.001</t>
+  </si>
+  <si>
+    <t>0.767+/-0.0</t>
+  </si>
+  <si>
+    <t>0.718</t>
+  </si>
+  <si>
+    <t>0.771+/-0.002</t>
+  </si>
+  <si>
+    <t>0.764+/-0.01</t>
+  </si>
+  <si>
+    <t>0.249</t>
+  </si>
+  <si>
+    <t>0.783+/-0.005</t>
+  </si>
+  <si>
+    <t>0.773+/-0.017</t>
+  </si>
+  <si>
+    <t>0.437</t>
+  </si>
+  <si>
+    <t>1.382+/-0.016</t>
+  </si>
+  <si>
+    <t>0.868+/-0.0</t>
+  </si>
+  <si>
+    <t>0.785</t>
+  </si>
+  <si>
+    <t>0.887+/-0.002</t>
+  </si>
+  <si>
+    <t>0.876+/-0.012</t>
+  </si>
+  <si>
+    <t>0.283</t>
+  </si>
+  <si>
+    <t>0.871+/-0.002</t>
+  </si>
+  <si>
+    <t>0.857+/-0.01</t>
+  </si>
+  <si>
+    <t>5.403+/-0.038</t>
+  </si>
+  <si>
+    <t>0.707+/-0.003</t>
+  </si>
+  <si>
+    <t>0.691+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.731+/-0.003</t>
+  </si>
+  <si>
+    <t>0.715+/-0.015</t>
+  </si>
+  <si>
+    <t>0.227</t>
+  </si>
+  <si>
+    <t>0.655+/-0.005</t>
+  </si>
+  <si>
+    <t>0.636+/-0.018</t>
+  </si>
+  <si>
+    <t>0.683+/-0.011</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.85+/-0.004</t>
+  </si>
+  <si>
+    <t>0.74+/-0.0</t>
+  </si>
+  <si>
+    <t>0.684</t>
+  </si>
+  <si>
+    <t>0.896+/-0.008</t>
+  </si>
+  <si>
+    <t>0.772+/-0.02</t>
+  </si>
+  <si>
+    <t>0.413</t>
+  </si>
+  <si>
+    <t>0.792+/-0.003</t>
+  </si>
+  <si>
+    <t>0.682+/-0.015</t>
   </si>
   <si>
     <t>0.334</t>
   </si>
   <si>
-    <t>0.817+/-0.003</t>
-  </si>
-  <si>
-    <t>0.797+/-0.019</t>
-  </si>
-  <si>
-    <t>0.256</t>
-  </si>
-  <si>
-    <t>5.75+/-0.056</t>
-  </si>
-  <si>
-    <t>0.698+/-0.005</t>
-  </si>
-  <si>
-    <t>0.676+/-0.0</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>0.717+/-0.006</t>
-  </si>
-  <si>
-    <t>0.694+/-0.013</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.654+/-0.008</t>
-  </si>
-  <si>
-    <t>0.63+/-0.024</t>
-  </si>
-  <si>
-    <t>0.413</t>
-  </si>
-  <si>
-    <t>0.748+/-0.03</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.898+/-0.001</t>
-  </si>
-  <si>
-    <t>0.851+/-0.0</t>
-  </si>
-  <si>
-    <t>0.763</t>
-  </si>
-  <si>
-    <t>0.883+/-0.002</t>
-  </si>
-  <si>
-    <t>0.846+/-0.012</t>
-  </si>
-  <si>
-    <t>0.268</t>
-  </si>
-  <si>
-    <t>0.918+/-0.001</t>
-  </si>
-  <si>
-    <t>0.86+/-0.019</t>
-  </si>
-  <si>
-    <t>7.753+/-0.124</t>
-  </si>
-  <si>
-    <t>0.774+/-0.004</t>
-  </si>
-  <si>
-    <t>0.765+/-0.0</t>
-  </si>
-  <si>
-    <t>0.725</t>
-  </si>
-  <si>
-    <t>0.776+/-0.004</t>
-  </si>
-  <si>
-    <t>0.768+/-0.012</t>
-  </si>
-  <si>
-    <t>0.255</t>
-  </si>
-  <si>
-    <t>0.77+/-0.006</t>
-  </si>
-  <si>
-    <t>0.76+/-0.012</t>
-  </si>
-  <si>
-    <t>0.434</t>
-  </si>
-  <si>
-    <t>1.53+/-0.034</t>
-  </si>
-  <si>
-    <t>0.878+/-0.001</t>
-  </si>
-  <si>
-    <t>0.867+/-0.0</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>0.888+/-0.001</t>
-  </si>
-  <si>
-    <t>0.879+/-0.008</t>
-  </si>
-  <si>
-    <t>0.293</t>
-  </si>
-  <si>
-    <t>0.852+/-0.014</t>
-  </si>
-  <si>
-    <t>0.283</t>
-  </si>
-  <si>
-    <t>6.225+/-0.34</t>
-  </si>
-  <si>
-    <t>0.704+/-0.004</t>
-  </si>
-  <si>
-    <t>0.689+/-0.0</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.739+/-0.004</t>
-  </si>
-  <si>
-    <t>0.723+/-0.012</t>
-  </si>
-  <si>
-    <t>0.225</t>
-  </si>
-  <si>
-    <t>0.63+/-0.007</t>
-  </si>
-  <si>
-    <t>0.612+/-0.015</t>
-  </si>
-  <si>
-    <t>0.412</t>
-  </si>
-  <si>
-    <t>0.959+/-0.089</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.85+/-0.004</t>
-  </si>
-  <si>
-    <t>0.736+/-0.0</t>
-  </si>
-  <si>
-    <t>0.668</t>
-  </si>
-  <si>
-    <t>0.882+/-0.006</t>
-  </si>
-  <si>
-    <t>0.76+/-0.014</t>
-  </si>
-  <si>
-    <t>0.388</t>
-  </si>
-  <si>
-    <t>0.808+/-0.002</t>
-  </si>
-  <si>
-    <t>0.692+/-0.012</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>6.77+/-0.115</t>
-  </si>
-  <si>
-    <t>0.683+/-0.002</t>
-  </si>
-  <si>
-    <t>0.666+/-0.0</t>
-  </si>
-  <si>
-    <t>0.633</t>
-  </si>
-  <si>
-    <t>0.699+/-0.003</t>
-  </si>
-  <si>
-    <t>0.682+/-0.019</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.642+/-0.005</t>
-  </si>
-  <si>
-    <t>0.624+/-0.018</t>
-  </si>
-  <si>
-    <t>0.383</t>
-  </si>
-  <si>
-    <t>1.413+/-0.035</t>
-  </si>
-  <si>
-    <t>0.795+/-0.001</t>
-  </si>
-  <si>
-    <t>0.764+/-0.0</t>
+    <t>6.252+/-0.05</t>
+  </si>
+  <si>
+    <t>0.684+/-0.002</t>
+  </si>
+  <si>
+    <t>0.669+/-0.0</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.704+/-0.003</t>
+  </si>
+  <si>
+    <t>0.687+/-0.018</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.637+/-0.007</t>
+  </si>
+  <si>
+    <t>0.622+/-0.022</t>
+  </si>
+  <si>
+    <t>0.377</t>
+  </si>
+  <si>
+    <t>1.312+/-0.018</t>
+  </si>
+  <si>
+    <t>0.793+/-0.001</t>
+  </si>
+  <si>
+    <t>0.76+/-0.0</t>
   </si>
   <si>
     <t>0.714</t>
   </si>
   <si>
-    <t>0.915+/-0.003</t>
-  </si>
-  <si>
-    <t>0.869+/-0.015</t>
-  </si>
-  <si>
-    <t>0.454</t>
-  </si>
-  <si>
-    <t>0.65+/-0.003</t>
-  </si>
-  <si>
-    <t>0.622+/-0.012</t>
-  </si>
-  <si>
-    <t>0.163</t>
-  </si>
-  <si>
-    <t>5.503+/-0.112</t>
-  </si>
-  <si>
-    <t>0.68+/-0.004</t>
-  </si>
-  <si>
-    <t>0.629+/-0.0</t>
-  </si>
-  <si>
-    <t>0.598</t>
-  </si>
-  <si>
-    <t>0.672+/-0.004</t>
-  </si>
-  <si>
-    <t>0.623+/-0.021</t>
+    <t>0.917+/-0.003</t>
+  </si>
+  <si>
+    <t>0.867+/-0.013</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>0.645+/-0.003</t>
+  </si>
+  <si>
+    <t>0.614+/-0.011</t>
+  </si>
+  <si>
+    <t>0.202</t>
+  </si>
+  <si>
+    <t>5.089+/-0.05</t>
+  </si>
+  <si>
+    <t>0.682+/-0.002</t>
+  </si>
+  <si>
+    <t>0.633+/-0.0</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.68+/-0.003</t>
+  </si>
+  <si>
+    <t>0.631+/-0.012</t>
   </si>
   <si>
     <t>0.352</t>
   </si>
   <si>
-    <t>0.702+/-0.007</t>
-  </si>
-  <si>
-    <t>0.655+/-0.015</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>0.716+/-0.056</t>
-  </si>
-  <si>
-    <t>0.692</t>
+    <t>0.688+/-0.011</t>
+  </si>
+  <si>
+    <t>0.644+/-0.015</t>
+  </si>
+  <si>
+    <t>0.524</t>
+  </si>
+  <si>
+    <t>0.639+/-0.013</t>
   </si>
   <si>
     <t>0.25+/-0.25</t>
@@ -460,121 +448,118 @@
     <t>0.5+/-0.5</t>
   </si>
   <si>
-    <t>0.856+/-0.002</t>
-  </si>
-  <si>
-    <t>0.725+/-0.0</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>0.912+/-0.004</t>
-  </si>
-  <si>
-    <t>0.77+/-0.015</t>
-  </si>
-  <si>
-    <t>0.404</t>
-  </si>
-  <si>
-    <t>0.788+/-0.003</t>
-  </si>
-  <si>
-    <t>0.643+/-0.028</t>
-  </si>
-  <si>
-    <t>0.279</t>
-  </si>
-  <si>
-    <t>6.498+/-0.168</t>
-  </si>
-  <si>
-    <t>0.67+/-0.004</t>
-  </si>
-  <si>
-    <t>0.655+/-0.0</t>
-  </si>
-  <si>
-    <t>0.626</t>
-  </si>
-  <si>
-    <t>0.702+/-0.005</t>
-  </si>
-  <si>
-    <t>0.686+/-0.013</t>
-  </si>
-  <si>
-    <t>0.382</t>
-  </si>
-  <si>
-    <t>0.591+/-0.007</t>
-  </si>
-  <si>
-    <t>0.574+/-0.022</t>
-  </si>
-  <si>
-    <t>0.347</t>
-  </si>
-  <si>
-    <t>1.352+/-0.059</t>
+    <t>0.856+/-0.003</t>
+  </si>
+  <si>
+    <t>0.719+/-0.0</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>0.905+/-0.008</t>
+  </si>
+  <si>
+    <t>0.756+/-0.012</t>
+  </si>
+  <si>
+    <t>0.402</t>
+  </si>
+  <si>
+    <t>0.795+/-0.005</t>
+  </si>
+  <si>
+    <t>0.648+/-0.026</t>
+  </si>
+  <si>
+    <t>0.298</t>
+  </si>
+  <si>
+    <t>6.058+/-0.135</t>
+  </si>
+  <si>
+    <t>0.668+/-0.004</t>
+  </si>
+  <si>
+    <t>0.652+/-0.0</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>0.691+/-0.005</t>
+  </si>
+  <si>
+    <t>0.671+/-0.013</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.607+/-0.008</t>
+  </si>
+  <si>
+    <t>0.595+/-0.025</t>
+  </si>
+  <si>
+    <t>1.194+/-0.015</t>
   </si>
   <si>
     <t>0.777+/-0.002</t>
   </si>
   <si>
-    <t>0.682</t>
-  </si>
-  <si>
-    <t>0.921+/-0.004</t>
-  </si>
-  <si>
-    <t>0.857+/-0.021</t>
-  </si>
-  <si>
-    <t>0.449</t>
-  </si>
-  <si>
-    <t>0.606+/-0.006</t>
-  </si>
-  <si>
-    <t>0.566+/-0.021</t>
-  </si>
-  <si>
-    <t>0.147</t>
-  </si>
-  <si>
-    <t>5.119+/-0.103</t>
-  </si>
-  <si>
-    <t>0.677+/-0.003</t>
+    <t>0.735+/-0.0</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.918+/-0.005</t>
+  </si>
+  <si>
+    <t>0.856+/-0.021</t>
+  </si>
+  <si>
+    <t>0.414</t>
+  </si>
+  <si>
+    <t>0.608+/-0.004</t>
+  </si>
+  <si>
+    <t>0.566+/-0.02</t>
+  </si>
+  <si>
+    <t>0.143</t>
+  </si>
+  <si>
+    <t>4.598+/-0.038</t>
+  </si>
+  <si>
+    <t>0.669+/-0.004</t>
   </si>
   <si>
     <t>0.616+/-0.0</t>
   </si>
   <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.661+/-0.005</t>
-  </si>
-  <si>
-    <t>0.604+/-0.013</t>
-  </si>
-  <si>
-    <t>0.377</t>
-  </si>
-  <si>
-    <t>0.726+/-0.01</t>
-  </si>
-  <si>
-    <t>0.671+/-0.03</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>0.673+/-0.022</t>
+    <t>0.572</t>
+  </si>
+  <si>
+    <t>0.659+/-0.005</t>
+  </si>
+  <si>
+    <t>0.608+/-0.013</t>
+  </si>
+  <si>
+    <t>0.367</t>
+  </si>
+  <si>
+    <t>0.702+/-0.012</t>
+  </si>
+  <si>
+    <t>0.654+/-0.013</t>
+  </si>
+  <si>
+    <t>0.539</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1184,10 @@
         <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1219,10 +1204,10 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1239,10 +1224,10 @@
         <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1253,16 +1238,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1273,16 +1258,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1293,16 +1278,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
         <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1313,16 +1298,16 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1333,7 +1318,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>78</v>
@@ -1342,7 +1327,7 @@
         <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1353,16 +1338,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
         <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1379,10 +1364,10 @@
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1423,16 +1408,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1443,16 +1428,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1460,19 +1445,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1480,19 +1465,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1500,19 +1485,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1523,16 +1508,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1540,19 +1525,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1560,19 +1545,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1583,16 +1568,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1600,19 +1585,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1653,16 +1638,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1673,16 +1658,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1690,19 +1675,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1710,19 +1695,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1730,19 +1715,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1753,16 +1738,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1770,19 +1755,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1790,19 +1775,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1813,16 +1798,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1830,19 +1815,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F11" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_10_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_10_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="223">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -61,505 +61,631 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.876+/-0.002</t>
-  </si>
-  <si>
-    <t>0.819+/-0.0</t>
-  </si>
-  <si>
-    <t>0.708</t>
-  </si>
-  <si>
-    <t>0.87+/-0.003</t>
-  </si>
-  <si>
-    <t>0.821+/-0.011</t>
-  </si>
-  <si>
-    <t>0.296</t>
-  </si>
-  <si>
-    <t>0.885+/-0.002</t>
-  </si>
-  <si>
-    <t>0.816+/-0.012</t>
-  </si>
-  <si>
-    <t>0.328</t>
-  </si>
-  <si>
-    <t>6.686+/-0.124</t>
-  </si>
-  <si>
-    <t>0.75+/-0.003</t>
-  </si>
-  <si>
-    <t>0.739+/-0.0</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>0.75+/-0.004</t>
-  </si>
-  <si>
-    <t>0.74+/-0.015</t>
-  </si>
-  <si>
-    <t>0.291</t>
-  </si>
-  <si>
-    <t>0.751+/-0.005</t>
-  </si>
-  <si>
-    <t>0.738+/-0.016</t>
-  </si>
-  <si>
-    <t>0.443</t>
-  </si>
-  <si>
-    <t>1.367+/-0.019</t>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.002+/-0.002</t>
+  </si>
+  <si>
+    <t>0.876+/-0.003</t>
+  </si>
+  <si>
+    <t>0.733+/-0.0</t>
+  </si>
+  <si>
+    <t>0.869+/-0.003</t>
+  </si>
+  <si>
+    <t>0.352+/-0.032</t>
+  </si>
+  <si>
+    <t>0.886+/-0.005</t>
+  </si>
+  <si>
+    <t>0.391+/-0.046</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>0.929+/-0.003</t>
+  </si>
+  <si>
+    <t>0.671+/-0.026</t>
+  </si>
+  <si>
+    <t>0.646</t>
+  </si>
+  <si>
+    <t>10.354+/-0.111</t>
+  </si>
+  <si>
+    <t>0.755+/-0.003</t>
+  </si>
+  <si>
+    <t>0.694+/-0.0</t>
+  </si>
+  <si>
+    <t>0.757+/-0.006</t>
+  </si>
+  <si>
+    <t>0.323+/-0.029</t>
+  </si>
+  <si>
+    <t>0.751+/-0.004</t>
+  </si>
+  <si>
+    <t>0.475+/-0.05</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>0.83+/-0.004</t>
+  </si>
+  <si>
+    <t>0.656+/-0.031</t>
+  </si>
+  <si>
+    <t>0.618</t>
+  </si>
+  <si>
+    <t>2.135+/-0.032</t>
+  </si>
+  <si>
+    <t>0.853+/-0.002</t>
+  </si>
+  <si>
+    <t>0.76+/-0.0</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>0.879+/-0.003</t>
+  </si>
+  <si>
+    <t>0.378+/-0.045</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>0.819+/-0.005</t>
+  </si>
+  <si>
+    <t>0.301+/-0.04</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.925+/-0.001</t>
+  </si>
+  <si>
+    <t>0.671+/-0.021</t>
+  </si>
+  <si>
+    <t>0.637</t>
+  </si>
+  <si>
+    <t>8.395+/-0.224</t>
+  </si>
+  <si>
+    <t>0.694+/-0.005</t>
+  </si>
+  <si>
+    <t>0.69+/-0.0</t>
+  </si>
+  <si>
+    <t>0.722+/-0.006</t>
+  </si>
+  <si>
+    <t>0.322+/-0.02</t>
+  </si>
+  <si>
+    <t>0.631+/-0.016</t>
+  </si>
+  <si>
+    <t>0.492+/-0.048</t>
+  </si>
+  <si>
+    <t>0.768+/-0.004</t>
+  </si>
+  <si>
+    <t>0.662+/-0.024</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>1.296+/-0.047</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.899+/-0.003</t>
+  </si>
+  <si>
+    <t>0.775+/-0.0</t>
+  </si>
+  <si>
+    <t>0.852</t>
+  </si>
+  <si>
+    <t>0.883+/-0.003</t>
+  </si>
+  <si>
+    <t>0.301+/-0.026</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.919+/-0.007</t>
+  </si>
+  <si>
+    <t>0.377+/-0.028</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>0.943+/-0.002</t>
+  </si>
+  <si>
+    <t>0.687+/-0.013</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>11.914+/-0.206</t>
+  </si>
+  <si>
+    <t>0.778+/-0.003</t>
+  </si>
+  <si>
+    <t>0.722+/-0.0</t>
+  </si>
+  <si>
+    <t>0.848</t>
+  </si>
+  <si>
+    <t>0.776+/-0.005</t>
+  </si>
+  <si>
+    <t>0.259+/-0.017</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>0.781+/-0.002</t>
+  </si>
+  <si>
+    <t>0.46+/-0.041</t>
+  </si>
+  <si>
+    <t>0.007</t>
   </si>
   <si>
     <t>0.852+/-0.001</t>
   </si>
   <si>
-    <t>0.837+/-0.0</t>
-  </si>
-  <si>
-    <t>0.749</t>
-  </si>
-  <si>
-    <t>0.88+/-0.001</t>
-  </si>
-  <si>
-    <t>0.867+/-0.014</t>
-  </si>
-  <si>
-    <t>0.337</t>
-  </si>
-  <si>
-    <t>0.815+/-0.002</t>
-  </si>
-  <si>
-    <t>0.796+/-0.018</t>
-  </si>
-  <si>
-    <t>0.253</t>
-  </si>
-  <si>
-    <t>5.285+/-0.05</t>
-  </si>
-  <si>
-    <t>0.696+/-0.004</t>
-  </si>
-  <si>
-    <t>0.672+/-0.0</t>
+    <t>0.668+/-0.016</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>2.235+/-0.03</t>
+  </si>
+  <si>
+    <t>0.879+/-0.002</t>
+  </si>
+  <si>
+    <t>0.794+/-0.0</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>0.888+/-0.002</t>
+  </si>
+  <si>
+    <t>0.305+/-0.024</t>
+  </si>
+  <si>
+    <t>0.167</t>
+  </si>
+  <si>
+    <t>0.866+/-0.003</t>
+  </si>
+  <si>
+    <t>0.292+/-0.035</t>
+  </si>
+  <si>
+    <t>0.942+/-0.001</t>
+  </si>
+  <si>
+    <t>0.683+/-0.014</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>8.538+/-0.14</t>
+  </si>
+  <si>
+    <t>0.712+/-0.006</t>
+  </si>
+  <si>
+    <t>0.716+/-0.0</t>
+  </si>
+  <si>
+    <t>0.738+/-0.007</t>
+  </si>
+  <si>
+    <t>0.266+/-0.016</t>
+  </si>
+  <si>
+    <t>0.656+/-0.012</t>
+  </si>
+  <si>
+    <t>0.506+/-0.032</t>
+  </si>
+  <si>
+    <t>0.794+/-0.005</t>
+  </si>
+  <si>
+    <t>0.678+/-0.022</t>
   </si>
   <si>
     <t>0.642</t>
   </si>
   <si>
-    <t>0.719+/-0.004</t>
-  </si>
-  <si>
-    <t>0.693+/-0.015</t>
-  </si>
-  <si>
-    <t>0.268</t>
-  </si>
-  <si>
-    <t>0.643+/-0.01</t>
-  </si>
-  <si>
-    <t>0.618+/-0.022</t>
-  </si>
-  <si>
-    <t>0.445</t>
-  </si>
-  <si>
-    <t>0.653+/-0.016</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.894+/-0.002</t>
-  </si>
-  <si>
-    <t>0.851+/-0.0</t>
-  </si>
-  <si>
-    <t>0.753</t>
-  </si>
-  <si>
-    <t>0.841+/-0.013</t>
-  </si>
-  <si>
-    <t>0.259</t>
-  </si>
-  <si>
-    <t>0.919+/-0.003</t>
-  </si>
-  <si>
-    <t>0.867+/-0.012</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>7.312+/-0.085</t>
-  </si>
-  <si>
-    <t>0.775+/-0.001</t>
-  </si>
-  <si>
-    <t>0.767+/-0.0</t>
+    <t>1.287+/-0.037</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.853+/-0.006</t>
+  </si>
+  <si>
+    <t>0.664+/-0.0</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.889+/-0.008</t>
+  </si>
+  <si>
+    <t>0.379+/-0.044</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>0.806+/-0.009</t>
+  </si>
+  <si>
+    <t>0.332+/-0.038</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>0.928+/-0.003</t>
+  </si>
+  <si>
+    <t>0.585+/-0.03</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>9.892+/-0.139</t>
+  </si>
+  <si>
+    <t>0.689+/-0.003</t>
+  </si>
+  <si>
+    <t>0.628+/-0.0</t>
   </si>
   <si>
     <t>0.718</t>
   </si>
   <si>
-    <t>0.771+/-0.002</t>
-  </si>
-  <si>
-    <t>0.764+/-0.01</t>
-  </si>
-  <si>
-    <t>0.249</t>
-  </si>
-  <si>
-    <t>0.783+/-0.005</t>
-  </si>
-  <si>
-    <t>0.773+/-0.017</t>
-  </si>
-  <si>
-    <t>0.437</t>
-  </si>
-  <si>
-    <t>1.382+/-0.016</t>
-  </si>
-  <si>
-    <t>0.868+/-0.0</t>
-  </si>
-  <si>
-    <t>0.785</t>
-  </si>
-  <si>
-    <t>0.887+/-0.002</t>
-  </si>
-  <si>
-    <t>0.876+/-0.012</t>
-  </si>
-  <si>
-    <t>0.283</t>
-  </si>
-  <si>
-    <t>0.871+/-0.002</t>
-  </si>
-  <si>
-    <t>0.857+/-0.01</t>
-  </si>
-  <si>
-    <t>5.403+/-0.038</t>
-  </si>
-  <si>
-    <t>0.707+/-0.003</t>
-  </si>
-  <si>
-    <t>0.691+/-0.0</t>
+    <t>0.704+/-0.002</t>
+  </si>
+  <si>
+    <t>0.352+/-0.031</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.652+/-0.009</t>
+  </si>
+  <si>
+    <t>0.41+/-0.039</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.758+/-0.003</t>
+  </si>
+  <si>
+    <t>0.581+/-0.025</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>2.076+/-0.026</t>
+  </si>
+  <si>
+    <t>0.798+/-0.003</t>
+  </si>
+  <si>
+    <t>0.705+/-0.0</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.916+/-0.006</t>
+  </si>
+  <si>
+    <t>0.42+/-0.027</t>
+  </si>
+  <si>
+    <t>0.463</t>
+  </si>
+  <si>
+    <t>0.656+/-0.006</t>
+  </si>
+  <si>
+    <t>0.17+/-0.013</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.872+/-0.002</t>
+  </si>
+  <si>
+    <t>0.569+/-0.02</t>
+  </si>
+  <si>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>7.912+/-0.124</t>
+  </si>
+  <si>
+    <t>0.681+/-0.004</t>
+  </si>
+  <si>
+    <t>0.578+/-0.0</t>
+  </si>
+  <si>
+    <t>0.673+/-0.006</t>
+  </si>
+  <si>
+    <t>0.333+/-0.017</t>
+  </si>
+  <si>
+    <t>0.706+/-0.011</t>
+  </si>
+  <si>
+    <t>0.519+/-0.028</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.748+/-0.004</t>
+  </si>
+  <si>
+    <t>0.587+/-0.025</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>1.155+/-0.021</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
   </si>
   <si>
     <t>0.692</t>
   </si>
   <si>
-    <t>0.731+/-0.003</t>
-  </si>
-  <si>
-    <t>0.715+/-0.015</t>
-  </si>
-  <si>
-    <t>0.227</t>
-  </si>
-  <si>
-    <t>0.655+/-0.005</t>
-  </si>
-  <si>
-    <t>0.636+/-0.018</t>
-  </si>
-  <si>
-    <t>0.683+/-0.011</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.85+/-0.004</t>
-  </si>
-  <si>
-    <t>0.74+/-0.0</t>
+    <t>0.853+/-0.005</t>
+  </si>
+  <si>
+    <t>0.638+/-0.0</t>
+  </si>
+  <si>
+    <t>0.902+/-0.008</t>
+  </si>
+  <si>
+    <t>0.384+/-0.019</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.793+/-0.006</t>
+  </si>
+  <si>
+    <t>0.289+/-0.011</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>0.563+/-0.013</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>9.512+/-0.148</t>
+  </si>
+  <si>
+    <t>0.675+/-0.003</t>
+  </si>
+  <si>
+    <t>0.616+/-0.0</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.704+/-0.005</t>
+  </si>
+  <si>
+    <t>0.372+/-0.033</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.604+/-0.009</t>
+  </si>
+  <si>
+    <t>0.36+/-0.048</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.738+/-0.003</t>
+  </si>
+  <si>
+    <t>0.562+/-0.021</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>1.907+/-0.019</t>
+  </si>
+  <si>
+    <t>0.777+/-0.001</t>
+  </si>
+  <si>
+    <t>0.673+/-0.0</t>
   </si>
   <si>
     <t>0.684</t>
   </si>
   <si>
-    <t>0.896+/-0.008</t>
-  </si>
-  <si>
-    <t>0.772+/-0.02</t>
-  </si>
-  <si>
-    <t>0.413</t>
-  </si>
-  <si>
-    <t>0.792+/-0.003</t>
-  </si>
-  <si>
-    <t>0.682+/-0.015</t>
-  </si>
-  <si>
-    <t>0.334</t>
-  </si>
-  <si>
-    <t>6.252+/-0.05</t>
-  </si>
-  <si>
-    <t>0.684+/-0.002</t>
-  </si>
-  <si>
-    <t>0.669+/-0.0</t>
-  </si>
-  <si>
-    <t>0.644</t>
-  </si>
-  <si>
-    <t>0.704+/-0.003</t>
-  </si>
-  <si>
-    <t>0.687+/-0.018</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>0.637+/-0.007</t>
-  </si>
-  <si>
-    <t>0.622+/-0.022</t>
-  </si>
-  <si>
-    <t>0.377</t>
-  </si>
-  <si>
-    <t>1.312+/-0.018</t>
-  </si>
-  <si>
-    <t>0.793+/-0.001</t>
-  </si>
-  <si>
-    <t>0.76+/-0.0</t>
-  </si>
-  <si>
-    <t>0.714</t>
-  </si>
-  <si>
-    <t>0.917+/-0.003</t>
-  </si>
-  <si>
-    <t>0.867+/-0.013</t>
-  </si>
-  <si>
-    <t>0.462</t>
-  </si>
-  <si>
-    <t>0.645+/-0.003</t>
-  </si>
-  <si>
-    <t>0.614+/-0.011</t>
-  </si>
-  <si>
-    <t>0.202</t>
-  </si>
-  <si>
-    <t>5.089+/-0.05</t>
-  </si>
-  <si>
-    <t>0.682+/-0.002</t>
-  </si>
-  <si>
-    <t>0.633+/-0.0</t>
-  </si>
-  <si>
-    <t>0.601</t>
-  </si>
-  <si>
-    <t>0.68+/-0.003</t>
-  </si>
-  <si>
-    <t>0.631+/-0.012</t>
-  </si>
-  <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>0.688+/-0.011</t>
-  </si>
-  <si>
-    <t>0.644+/-0.015</t>
-  </si>
-  <si>
-    <t>0.524</t>
-  </si>
-  <si>
-    <t>0.639+/-0.013</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.856+/-0.003</t>
-  </si>
-  <si>
-    <t>0.719+/-0.0</t>
-  </si>
-  <si>
-    <t>0.647</t>
-  </si>
-  <si>
-    <t>0.905+/-0.008</t>
-  </si>
-  <si>
-    <t>0.756+/-0.012</t>
-  </si>
-  <si>
-    <t>0.402</t>
-  </si>
-  <si>
-    <t>0.795+/-0.005</t>
-  </si>
-  <si>
-    <t>0.648+/-0.026</t>
-  </si>
-  <si>
-    <t>0.298</t>
-  </si>
-  <si>
-    <t>6.058+/-0.135</t>
-  </si>
-  <si>
-    <t>0.668+/-0.004</t>
-  </si>
-  <si>
-    <t>0.652+/-0.0</t>
-  </si>
-  <si>
-    <t>0.615</t>
-  </si>
-  <si>
-    <t>0.691+/-0.005</t>
-  </si>
-  <si>
-    <t>0.671+/-0.013</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.607+/-0.008</t>
-  </si>
-  <si>
-    <t>0.595+/-0.025</t>
-  </si>
-  <si>
-    <t>1.194+/-0.015</t>
-  </si>
-  <si>
-    <t>0.777+/-0.002</t>
-  </si>
-  <si>
-    <t>0.735+/-0.0</t>
-  </si>
-  <si>
-    <t>0.674</t>
-  </si>
-  <si>
-    <t>0.918+/-0.005</t>
-  </si>
-  <si>
-    <t>0.856+/-0.021</t>
-  </si>
-  <si>
-    <t>0.414</t>
-  </si>
-  <si>
-    <t>0.608+/-0.004</t>
-  </si>
-  <si>
-    <t>0.566+/-0.02</t>
-  </si>
-  <si>
-    <t>0.143</t>
-  </si>
-  <si>
-    <t>4.598+/-0.038</t>
-  </si>
-  <si>
-    <t>0.669+/-0.004</t>
-  </si>
-  <si>
-    <t>0.616+/-0.0</t>
-  </si>
-  <si>
-    <t>0.572</t>
-  </si>
-  <si>
-    <t>0.659+/-0.005</t>
-  </si>
-  <si>
-    <t>0.608+/-0.013</t>
-  </si>
-  <si>
-    <t>0.367</t>
-  </si>
-  <si>
-    <t>0.702+/-0.012</t>
-  </si>
-  <si>
-    <t>0.654+/-0.013</t>
-  </si>
-  <si>
-    <t>0.539</t>
+    <t>0.92+/-0.006</t>
+  </si>
+  <si>
+    <t>0.419+/-0.036</t>
+  </si>
+  <si>
+    <t>0.403</t>
+  </si>
+  <si>
+    <t>0.607+/-0.006</t>
+  </si>
+  <si>
+    <t>0.151+/-0.012</t>
+  </si>
+  <si>
+    <t>0.051</t>
+  </si>
+  <si>
+    <t>0.854+/-0.002</t>
+  </si>
+  <si>
+    <t>0.553+/-0.014</t>
+  </si>
+  <si>
+    <t>0.598</t>
+  </si>
+  <si>
+    <t>7.236+/-0.156</t>
+  </si>
+  <si>
+    <t>0.674+/-0.007</t>
+  </si>
+  <si>
+    <t>0.554+/-0.0</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.66+/-0.005</t>
+  </si>
+  <si>
+    <t>0.35+/-0.01</t>
+  </si>
+  <si>
+    <t>0.719+/-0.016</t>
+  </si>
+  <si>
+    <t>0.521+/-0.019</t>
+  </si>
+  <si>
+    <t>0.734+/-0.006</t>
+  </si>
+  <si>
+    <t>0.571+/-0.01</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>1.105+/-0.031</t>
   </si>
 </sst>
 </file>
@@ -917,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -945,19 +1071,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -965,19 +1091,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -985,19 +1111,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1005,19 +1131,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1025,19 +1151,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1045,19 +1171,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1065,19 +1191,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1085,19 +1211,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1105,19 +1231,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1125,19 +1251,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1147,7 +1333,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1175,19 +1361,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1195,19 +1381,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1215,19 +1401,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1235,19 +1421,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1255,19 +1441,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1275,19 +1461,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1295,19 +1481,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1315,19 +1501,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1335,19 +1521,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1355,19 +1541,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
         <v>97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1377,7 +1623,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1405,19 +1651,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1425,19 +1671,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1445,19 +1691,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1465,19 +1711,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1485,19 +1731,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1505,19 +1751,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1525,19 +1771,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1545,19 +1791,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1565,19 +1811,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1585,19 +1831,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1913,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1635,19 +1941,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1655,19 +1961,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1675,19 +1981,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="F4" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1695,19 +2001,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1715,19 +2021,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1735,19 +2041,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="F7" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1755,19 +2061,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1775,19 +2081,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1795,19 +2101,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="F10" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1815,19 +2121,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
